--- a/Shiny/Dati/Estrusione_2^2.xlsx
+++ b/Shiny/Dati/Estrusione_2^2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camillo\Google_Drive\01_MeTanalisi\Giorgio\Master Bonferoni - 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DoE\Shiny\Dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9078633D-41F0-4BB4-8F3B-B0FC9E74B229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BA87CE-0605-4EFA-9BF9-24DCB3ABFF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3E1594F2-D99B-4605-90B6-666787AF4D89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3E1594F2-D99B-4605-90B6-666787AF4D89}"/>
   </bookViews>
   <sheets>
     <sheet name="EXTRUSION 2^2" sheetId="1" r:id="rId1"/>
+    <sheet name="Costruzione" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>x1</t>
   </si>
@@ -43,26 +44,62 @@
     <t>x2</t>
   </si>
   <si>
-    <t>spher. time (min)</t>
-  </si>
-  <si>
-    <t>spher. speed (rpm)</t>
-  </si>
-  <si>
-    <t>Yied 1 (%)</t>
-  </si>
-  <si>
-    <t>Yied 2 (%)</t>
-  </si>
-  <si>
-    <t>Yied 3 (%)</t>
+    <t>Factor, abbreviation</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Associated variable</t>
+  </si>
+  <si>
+    <t>Lower limit (coded -1)</t>
+  </si>
+  <si>
+    <t>Centre (coded 0)</t>
+  </si>
+  <si>
+    <t>Upper limit (coded +1)</t>
+  </si>
+  <si>
+    <t>spheronization speed, sphspeed</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>spheronization time, sphtime</t>
+  </si>
+  <si>
+    <t>sphtime</t>
+  </si>
+  <si>
+    <t>sphspeed</t>
+  </si>
+  <si>
+    <t>Yield1</t>
+  </si>
+  <si>
+    <t>Yield2</t>
+  </si>
+  <si>
+    <t>Yield3</t>
+  </si>
+  <si>
+    <t>Variables for Extrusion-Spheronization Study</t>
+  </si>
+  <si>
+    <t>Riferimento</t>
+  </si>
+  <si>
+    <t>G.A. Lewis, D. Mathieu, R. Phan-Tan-Luu, Pharmaceutical Experimental Design. Marcel Dekker, 1999.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +115,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,15 +274,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -272,9 +313,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -290,7 +341,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -586,142 +637,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28F05E4-E01A-43D9-BB7E-4AA8435BB218}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" customWidth="1"/>
+    <col min="15" max="17" width="22.140625" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4">
+        <v>700</v>
+      </c>
+      <c r="E2" s="5">
+        <v>68.3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>71.7</v>
+      </c>
+      <c r="G2" s="6">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8">
+        <v>700</v>
+      </c>
+      <c r="E3" s="9">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="F3" s="9">
+        <v>66.3</v>
+      </c>
+      <c r="G3" s="10">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1100</v>
+      </c>
+      <c r="E4" s="9">
+        <v>61.1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="G4" s="10">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1100</v>
+      </c>
+      <c r="E5" s="13">
+        <v>42.8</v>
+      </c>
+      <c r="F5" s="13">
+        <v>44.2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A02DFC9-03C3-4B33-9400-5BC5BA914650}">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="8" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="E3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>-1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>-1</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="F4" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="G4" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
         <v>700</v>
       </c>
-      <c r="E2" s="8">
-        <v>68.3</v>
-      </c>
-      <c r="F2" s="8">
-        <v>71.7</v>
-      </c>
-      <c r="G2" s="9">
-        <v>64.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11">
-        <v>-1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>5</v>
-      </c>
-      <c r="D3" s="11">
-        <v>700</v>
-      </c>
-      <c r="E3" s="12">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="F3" s="12">
-        <v>66.3</v>
-      </c>
-      <c r="G3" s="13">
-        <v>58.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>-1</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="F5" s="17">
+        <v>900</v>
+      </c>
+      <c r="G5" s="17">
         <v>1100</v>
       </c>
-      <c r="E4" s="12">
-        <v>61.1</v>
-      </c>
-      <c r="F4" s="12">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="G4" s="13">
-        <v>59.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>1</v>
-      </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14">
-        <v>5</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1100</v>
-      </c>
-      <c r="E5" s="16">
-        <v>42.8</v>
-      </c>
-      <c r="F5" s="16">
-        <v>44.2</v>
-      </c>
-      <c r="G5" s="17">
-        <v>39.299999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>